--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3433.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3433.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.076768441945158</v>
+        <v>1.441254854202271</v>
       </c>
       <c r="B1">
-        <v>2.551148588004789</v>
+        <v>3.324631452560425</v>
       </c>
       <c r="C1">
-        <v>4.254124517960205</v>
+        <v>4.370556354522705</v>
       </c>
       <c r="D1">
-        <v>3.552305045199301</v>
+        <v>2.019719362258911</v>
       </c>
       <c r="E1">
-        <v>1.292708789310445</v>
+        <v>1.159057378768921</v>
       </c>
     </row>
   </sheetData>
